--- a/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_3.xlsx
+++ b/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_3.xlsx
@@ -33,16 +33,16 @@
     <t>Data Stream (DVM_DATA_STREAMS)</t>
   </si>
   <si>
-    <t>There are no DVM data streams defined in the database, at least one data stream must be defined to execute the DVM</t>
-  </si>
-  <si>
     <t>Data Validation Rules (DVM_ISS_TYPES)</t>
   </si>
   <si>
-    <t>There are no DVM Validation Rules defined in the database, at least one validation rule must be defined to execute the DVM</t>
+    <t>Select ERR_SOURCE, ERR_MSG FROM DVM_STD_QC_ALL_RPT_V ORDER BY ERR_SOURCE, ERR_MSG</t>
   </si>
   <si>
-    <t>Select ERR_SOURCE, ERR_MSG FROM DVM_STD_QC_ALL_RPT_V ORDER BY ERR_SOURCE, ERR_MSG</t>
+    <t>There are no Data Streams defined in the DVM, at least one Data Stream must be defined to execute the DVM</t>
+  </si>
+  <si>
+    <t>There are no Validation Rules defined in the DVM, at least one Validation Rule must be defined to execute the DVM</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="A2:B3"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,15 +389,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -428,15 +428,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -449,7 +449,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
